--- a/Documents/User Story(2).xlsx
+++ b/Documents/User Story(2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00290732\Documents\GitHub\SoftwareEngineeringGroup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00290732\Documents\GitHub\SoftwareEngineeringGroup\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9093A849-AD84-4C6B-9DF4-73A777CBA7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B403009-757C-41AB-BD42-A5F603DE007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
   <si>
     <t>Number</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>Verify valid customer cannot be created without name and address</t>
+  </si>
+  <si>
+    <t>Verify valid customer ID: char followed by 5-6 digits</t>
   </si>
 </sst>
 </file>
@@ -825,7 +828,7 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -848,8 +851,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="C2" s="3" t="s">
-        <v>4</v>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -859,8 +862,8 @@
       <c r="B3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -868,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -876,16 +879,21 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="1:3">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Documents/User Story(2).xlsx
+++ b/Documents/User Story(2).xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00290732\Documents\GitHub\SoftwareEngineeringGroup\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciara\Documents\GitHub\SoftwareEngineeringGroup\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B403009-757C-41AB-BD42-A5F603DE007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97502431-05E7-46ED-AB40-44C9E21E1948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" firstSheet="3" activeTab="6" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
     <sheet name="Delivery Driver" sheetId="2" r:id="rId2"/>
     <sheet name="Newsagent" sheetId="4" r:id="rId3"/>
-    <sheet name="Delivery Docket" sheetId="3" r:id="rId4"/>
+    <sheet name="Publiciations" sheetId="5" r:id="rId4"/>
+    <sheet name="Warning" sheetId="9" r:id="rId5"/>
+    <sheet name="Order" sheetId="6" r:id="rId6"/>
+    <sheet name="Invoice" sheetId="7" r:id="rId7"/>
+    <sheet name="Delivery Area" sheetId="8" r:id="rId8"/>
+    <sheet name="Delivery Docket" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="147">
   <si>
     <t>Number</t>
   </si>
@@ -342,14 +347,163 @@
     <t>Verify valid customer cannot be created without name and address</t>
   </si>
   <si>
-    <t>Verify valid customer ID: char followed by 5-6 digits</t>
+    <t>I want to create a publication</t>
+  </si>
+  <si>
+    <t>Verify valid name(2 - max characters)</t>
+  </si>
+  <si>
+    <t>Verify valid type of publication(Magazine, Newspaper, Book)</t>
+  </si>
+  <si>
+    <t>Verify valid author( 2 - max characters)</t>
+  </si>
+  <si>
+    <t>Verify valid publication ID( 4 digits)</t>
+  </si>
+  <si>
+    <t>Verify valid customer ID: 4 digits</t>
+  </si>
+  <si>
+    <t>Verify valid publciation cannot be created without name, type and date</t>
+  </si>
+  <si>
+    <t>Verify valid publication frequency(daily, weekly, monthly )</t>
+  </si>
+  <si>
+    <t>I want to read a publication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify valid details can be read for paticular ID entered </t>
+  </si>
+  <si>
+    <t>I want to update a publication</t>
+  </si>
+  <si>
+    <t>so that I can adjust information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify details from User Story 1 can be modified </t>
+  </si>
+  <si>
+    <t>Verify valid details are entered</t>
+  </si>
+  <si>
+    <t>I want to remove a publication</t>
+  </si>
+  <si>
+    <t>so that I can delete a publication I no longer sell</t>
+  </si>
+  <si>
+    <t>Verify appropiate message is generated when deleted.</t>
+  </si>
+  <si>
+    <t>I want to create a warning</t>
+  </si>
+  <si>
+    <t>so that I can create a late payment notification</t>
+  </si>
+  <si>
+    <t>Verify valid warning is generated for customers that have not paid</t>
+  </si>
+  <si>
+    <t>Verify valid customer ID is associated with warning</t>
+  </si>
+  <si>
+    <t>Verify valid date is included on warning</t>
+  </si>
+  <si>
+    <t>I want to create an order</t>
+  </si>
+  <si>
+    <t>so that I can deliver my publication</t>
+  </si>
+  <si>
+    <t>Verify valid order ID(8 digits)</t>
+  </si>
+  <si>
+    <t>Verify valid order can only be created for existing customer</t>
+  </si>
+  <si>
+    <t>Verify valid date on order</t>
+  </si>
+  <si>
+    <t>Verify list of valid publication IDs</t>
+  </si>
+  <si>
+    <t>I want to read an order</t>
+  </si>
+  <si>
+    <t>so that I can review the order</t>
+  </si>
+  <si>
+    <t>Verify valid order publications can be read</t>
+  </si>
+  <si>
+    <t>I want to update an order</t>
+  </si>
+  <si>
+    <t>I want to remove an order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so that I can delete an order no longer wanted </t>
+  </si>
+  <si>
+    <t>Verify valid details from User Story 1 can be deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to create an invoice </t>
+  </si>
+  <si>
+    <t>so that I can bill my customers</t>
+  </si>
+  <si>
+    <t>Verify valid invoice ID(6 digits)</t>
+  </si>
+  <si>
+    <t>Verify valid date on invoice</t>
+  </si>
+  <si>
+    <t>Verify valid business address on invoice?</t>
+  </si>
+  <si>
+    <t>Verify valid amount owed(sum of orders for previous month)</t>
+  </si>
+  <si>
+    <t>I want to read an invoice</t>
+  </si>
+  <si>
+    <t>Verify valid list of orders from previous month</t>
+  </si>
+  <si>
+    <t>so that I can review the invoice</t>
+  </si>
+  <si>
+    <t>I want to update an invoice</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify valid cost of publication (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>€1.00 - €75.00)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +574,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -827,19 +990,19 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B5" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.36328125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,12 +1013,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -866,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -874,7 +1037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -882,22 +1045,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -908,7 +1071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -916,7 +1079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
@@ -924,10 +1087,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -938,7 +1101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
@@ -946,16 +1109,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -966,7 +1129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
@@ -974,12 +1137,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -990,7 +1153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
         <v>82</v>
       </c>
@@ -998,7 +1161,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
         <v>83</v>
       </c>
@@ -1006,17 +1169,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C28" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -1027,7 +1190,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
         <v>97</v>
       </c>
@@ -1035,7 +1198,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>84</v>
       </c>
@@ -1043,7 +1206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -1054,7 +1217,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
         <v>98</v>
       </c>
@@ -1062,7 +1225,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
         <v>86</v>
       </c>
@@ -1070,7 +1233,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>8</v>
       </c>
@@ -1081,7 +1244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
         <v>99</v>
       </c>
@@ -1089,7 +1252,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
@@ -1097,7 +1260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -1108,7 +1271,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>77</v>
       </c>
@@ -1116,7 +1279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
         <v>88</v>
       </c>
@@ -1124,12 +1287,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C53" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -1140,7 +1303,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
         <v>91</v>
       </c>
@@ -1148,7 +1311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="2" t="s">
         <v>89</v>
       </c>
@@ -1156,7 +1319,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -1173,17 +1336,17 @@
   </sheetPr>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="78.5" customWidth="1"/>
-    <col min="3" max="3" width="85.5" customWidth="1"/>
+    <col min="2" max="2" width="78.453125" customWidth="1"/>
+    <col min="3" max="3" width="85.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1205,7 +1368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
@@ -1213,7 +1376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>67</v>
       </c>
@@ -1221,22 +1384,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2</v>
       </c>
@@ -1247,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
@@ -1255,15 +1418,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>3</v>
       </c>
@@ -1274,7 +1437,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>51</v>
       </c>
@@ -1282,15 +1445,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>4</v>
       </c>
@@ -1301,7 +1464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1309,15 +1472,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>5</v>
       </c>
@@ -1328,7 +1491,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1336,7 +1499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1344,34 +1507,34 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>6</v>
       </c>
@@ -1382,7 +1545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1390,7 +1553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1398,19 +1561,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>7</v>
       </c>
@@ -1421,7 +1584,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1429,12 +1592,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="9">
         <v>8</v>
       </c>
@@ -1445,7 +1608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
         <v>44</v>
       </c>
@@ -1453,7 +1616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
@@ -1461,37 +1624,37 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
       <c r="C43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
       <c r="C44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
       <c r="C45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
       <c r="C46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
       <c r="C47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>9</v>
       </c>
@@ -1502,7 +1665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
         <v>60</v>
       </c>
@@ -1510,7 +1673,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>61</v>
       </c>
@@ -1518,35 +1681,35 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:3" ht="15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:3" ht="15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:3" ht="15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:3" ht="15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:3" ht="15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:3" ht="15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:3" ht="15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:3" ht="15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:3" ht="15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
     </row>
   </sheetData>
@@ -1559,46 +1722,1022 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView zoomScale="191" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.36328125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C0FB09-E20E-4EE6-8790-998DE497921E}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" zoomScale="138" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.36328125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C53" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C54" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C58" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447D839F-B03B-441A-A45A-B8367038B2C1}">
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.36328125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C53" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C54" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C58" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F574EB7-EE71-44C9-BD3E-64BBF56D89EF}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.36328125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C53" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C54" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C58" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35182C04-981B-4EB3-AB9F-C62CA1709D69}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.36328125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C53" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C54" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C58" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C2F73C-863C-4F10-B8A6-D444F9E416C0}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388B29F0-9C74-42C7-87F6-AEC755062614}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="B1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="35.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="54.75" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="35.6328125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="54.7265625" style="13" customWidth="1"/>
     <col min="4" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
         <v>96</v>
       </c>

--- a/Documents/User Story(2).xlsx
+++ b/Documents/User Story(2).xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciara\Documents\GitHub\SoftwareEngineeringGroup\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00290732\Desktop\SoftwareEngineeringGroup\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97502431-05E7-46ED-AB40-44C9E21E1948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3190A8F7-477A-4FF1-A85A-DCB98CCD2D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" firstSheet="3" activeTab="6" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
     <sheet name="Delivery Driver" sheetId="2" r:id="rId2"/>
-    <sheet name="Newsagent" sheetId="4" r:id="rId3"/>
-    <sheet name="Publiciations" sheetId="5" r:id="rId4"/>
-    <sheet name="Warning" sheetId="9" r:id="rId5"/>
-    <sheet name="Order" sheetId="6" r:id="rId6"/>
-    <sheet name="Invoice" sheetId="7" r:id="rId7"/>
-    <sheet name="Delivery Area" sheetId="8" r:id="rId8"/>
-    <sheet name="Delivery Docket" sheetId="3" r:id="rId9"/>
+    <sheet name="Publiciations" sheetId="5" r:id="rId3"/>
+    <sheet name="Order" sheetId="6" r:id="rId4"/>
+    <sheet name="Invoice" sheetId="7" r:id="rId5"/>
+    <sheet name="Delivery Area" sheetId="8" r:id="rId6"/>
+    <sheet name="Delivery Docket" sheetId="3" r:id="rId7"/>
+    <sheet name="Warning" sheetId="9" r:id="rId8"/>
+    <sheet name="Newsagent" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="146">
   <si>
     <t>Number</t>
   </si>
@@ -110,12 +110,6 @@
     <t>Verify valid Full Name (2-50 characters)</t>
   </si>
   <si>
-    <t>I want to create an address delivery list</t>
-  </si>
-  <si>
-    <t>So that my drivers have valid delivery destinations</t>
-  </si>
-  <si>
     <t>As a Delivery Driver</t>
   </si>
   <si>
@@ -125,39 +119,18 @@
     <t>so that I can delete customers that no longer subscribe</t>
   </si>
   <si>
-    <t>So that I can find the details I need to complete a delivery</t>
-  </si>
-  <si>
-    <t>Verify valid Customer Profile can be read from User Story 1 (Customer Sheet)</t>
-  </si>
-  <si>
     <t>Verify valid details from User Story 1</t>
   </si>
   <si>
-    <t>So that delivery effiencey is maximised</t>
-  </si>
-  <si>
-    <t>Verify valid area code</t>
-  </si>
-  <si>
     <t>Verify valid number of weeks order occurs(1 - 52 weeks)</t>
   </si>
   <si>
     <t>Verify invalid inputs are rejected and appropiate message is generated</t>
   </si>
   <si>
-    <t>Verify valid Driver Profile can be read from User Story 1</t>
-  </si>
-  <si>
     <t>Verify invalid inputs are rejected and error message is printed</t>
   </si>
   <si>
-    <t>I want to assign a driver to a certain mapped area zone</t>
-  </si>
-  <si>
-    <t>I want to read a delivery list</t>
-  </si>
-  <si>
     <t>Verify if package was successfully delivered</t>
   </si>
   <si>
@@ -218,24 +191,6 @@
     <t>Verify valid publications selected(min 1 publication selected before order)</t>
   </si>
   <si>
-    <t>Verify valid customer profiles in selected area</t>
-  </si>
-  <si>
-    <t>Verify valid addresses in selected area</t>
-  </si>
-  <si>
-    <t>I want to contact a customer</t>
-  </si>
-  <si>
-    <t>So that I can ask queries or delivery instrcutions</t>
-  </si>
-  <si>
-    <t>Verify error message if customer is unresponsive</t>
-  </si>
-  <si>
-    <t>Verify if driver message is successfully delivered</t>
-  </si>
-  <si>
     <t>Verify valid duration from User Story 5 can be modified(extend or shorten duration)</t>
   </si>
   <si>
@@ -248,27 +203,6 @@
     <t>So that I can organise delivery with drivers</t>
   </si>
   <si>
-    <t>Verify valid details from User Story 5 can be read</t>
-  </si>
-  <si>
-    <t>Verify amount of delivery destinations for driver in that area (5 - 20)</t>
-  </si>
-  <si>
-    <t>Verify maximum amount of delivery destinations cannot exceed 20</t>
-  </si>
-  <si>
-    <t>Verify minimum amount of delivery destinations cannot subceed 5</t>
-  </si>
-  <si>
-    <t>Verify error message is displayed if invalid instructions are given</t>
-  </si>
-  <si>
-    <t>Verify delivery destinations are assigned to nearest driver(s) if driver limit is exceeded for that area (20)</t>
-  </si>
-  <si>
-    <t>Verify error message is displayed if invalid deliveries are displayed</t>
-  </si>
-  <si>
     <t>Verify valid start and end date of stoppage(1 - 52 weeks)</t>
   </si>
   <si>
@@ -327,12 +261,6 @@
   </si>
   <si>
     <t>Verify valid end date is not before start date</t>
-  </si>
-  <si>
-    <t>I want to create a delivery docket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so that </t>
   </si>
   <si>
     <t>I want to modify a customer subscription</t>
@@ -498,12 +426,81 @@
       <t>€1.00 - €75.00)</t>
     </r>
   </si>
+  <si>
+    <t>I want to remove an invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so that I can delete an invoice no longer needed </t>
+  </si>
+  <si>
+    <t>I want to create a delivery area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so that I can divide up the addresses </t>
+  </si>
+  <si>
+    <t>Verify valid delivery area ID(2 digits</t>
+  </si>
+  <si>
+    <t>Verify valid name of delivery area(2 - max characters)</t>
+  </si>
+  <si>
+    <t>Verify valid size of delivery area</t>
+  </si>
+  <si>
+    <t>I want to read a delivery area</t>
+  </si>
+  <si>
+    <t>so that I can review the delivery area</t>
+  </si>
+  <si>
+    <t>I want to update a delivery area</t>
+  </si>
+  <si>
+    <t>I want to remove a delivery area</t>
+  </si>
+  <si>
+    <t>so that I can delete a delivery area no longer needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to create a delivery docket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">so that the delivery drivers know where to deliver </t>
+  </si>
+  <si>
+    <t>Verify valid delivery docket ID(8 digits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify valid area is on delivery docket </t>
+  </si>
+  <si>
+    <t>Verify valid date on delivery docket(dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>Verify valid orders appear on  docket</t>
+  </si>
+  <si>
+    <t>I want to read a delivery docket</t>
+  </si>
+  <si>
+    <t>so that I can review the delivery docket</t>
+  </si>
+  <si>
+    <t>I want to update a delivery docket</t>
+  </si>
+  <si>
+    <t>I want to remove a delivery docket</t>
+  </si>
+  <si>
+    <t>so that I can delete a delivery docket no longer needed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,13 +568,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,7 +622,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,7 +639,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,21 +976,21 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A43" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.36328125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,23 +1001,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="C2" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +1025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1045,33 +1033,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="C7" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1079,7 +1067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1087,21 +1075,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1109,27 +1097,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
@@ -1137,191 +1125,186 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="B27" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="C28" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="C29" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="B33" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="B42" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1336,29 +1319,29 @@
   </sheetPr>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="78.453125" customWidth="1"/>
-    <col min="3" max="3" width="85.453125" customWidth="1"/>
+    <col min="2" max="2" width="78.5" customWidth="1"/>
+    <col min="3" max="3" width="85.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1368,39 +1351,39 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15">
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15">
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15">
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="11">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1410,306 +1393,202 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15">
       <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
       <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="11">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
       <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
       <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="11">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
       <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="7">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
-        <v>5</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
       <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15">
       <c r="B24" s="2"/>
       <c r="C24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
       <c r="B25" s="2"/>
       <c r="C25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
-        <v>6</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="B32" s="2"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" ht="15">
       <c r="B33" s="2"/>
-      <c r="C33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:2" ht="15">
       <c r="B34" s="2"/>
-      <c r="C34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
-        <v>7</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="9">
-        <v>8</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="2"/>
-      <c r="C43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="2"/>
-      <c r="C44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="2"/>
-      <c r="C45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="2"/>
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="2"/>
-      <c r="C47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
-        <v>9</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
+    </row>
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36" s="8"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" ht="15">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" ht="15">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="40" spans="1:2" ht="15">
+      <c r="A40" s="8"/>
+    </row>
+    <row r="49" spans="1:2" ht="15">
+      <c r="A49" s="8"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" ht="15">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" ht="15">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="53" spans="1:2" ht="15">
+      <c r="A53" s="8"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="15">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="15">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="15">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="15">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="15">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="15">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="15">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="15">
       <c r="B62" s="2"/>
     </row>
   </sheetData>
@@ -1718,66 +1597,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5938CEC-1BD4-42F5-AC57-0BB3D1109D0C}">
-  <sheetPr>
-    <tabColor theme="6" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView zoomScale="191" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.36328125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C3" s="3"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C22" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C0FB09-E20E-4EE6-8790-998DE497921E}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1788,15 +1607,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.36328125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1807,78 +1626,78 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="C7" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="C8" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="C9" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1886,130 +1705,130 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="C54" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="C58" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2019,227 +1838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447D839F-B03B-441A-A45A-B8367038B2C1}">
-  <dimension ref="A1:C59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.36328125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C10" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>9</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C53" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C54" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>10</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C58" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F574EB7-EE71-44C9-BD3E-64BBF56D89EF}">
   <sheetPr>
     <tabColor theme="3" tint="0.249977111117893"/>
@@ -2250,15 +1849,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.36328125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2269,197 +1868,197 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="C54" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="C58" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2469,26 +2068,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35182C04-981B-4EB3-AB9F-C62CA1709D69}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="105" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.36328125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2499,194 +2098,194 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="C7" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="C54" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="C58" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2696,54 +2295,730 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C2F73C-863C-4F10-B8A6-D444F9E416C0}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="B4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="B5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15"/>
+    <row r="7" spans="1:3" ht="15">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="B14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="B15" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="B18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15">
+      <c r="B22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="B23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50" s="1">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15">
+      <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15">
+      <c r="B52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15">
+      <c r="C53" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15">
+      <c r="C54" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15">
+      <c r="A55" s="1">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15">
+      <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15">
+      <c r="B57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15">
+      <c r="C58" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15">
+      <c r="A59" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388B29F0-9C74-42C7-87F6-AEC755062614}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="C53" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="C54" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="C58" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C2F73C-863C-4F10-B8A6-D444F9E416C0}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447D839F-B03B-441A-A45A-B8367038B2C1}">
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="C53" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="C54" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="C58" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388B29F0-9C74-42C7-87F6-AEC755062614}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5938CEC-1BD4-42F5-AC57-0BB3D1109D0C}">
   <sheetPr>
-    <tabColor theme="4"/>
+    <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:B3"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="190" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" zoomScale="191" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="35.6328125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="54.7265625" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
-        <v>96</v>
-      </c>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/User Story(2).xlsx
+++ b/Documents/User Story(2).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00290732\Desktop\SoftwareEngineeringGroup\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoinz\Documents\Git Repos\SoftwareEngineeringGroup\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3190A8F7-477A-4FF1-A85A-DCB98CCD2D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DAD0DA-FC11-4290-844A-C14DA2EB74C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
     <sheet name="Delivery Driver" sheetId="2" r:id="rId2"/>
-    <sheet name="Publiciations" sheetId="5" r:id="rId3"/>
+    <sheet name="Publications" sheetId="5" r:id="rId3"/>
     <sheet name="Order" sheetId="6" r:id="rId4"/>
     <sheet name="Invoice" sheetId="7" r:id="rId5"/>
     <sheet name="Delivery Area" sheetId="8" r:id="rId6"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="152">
   <si>
     <t>Number</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>As a business owner</t>
-  </si>
-  <si>
-    <t>Verify Valid Delivery ID (2-10 digits)</t>
   </si>
   <si>
     <t>Verify Valid Phone Number (9 digits)</t>
@@ -495,12 +492,33 @@
   <si>
     <t>so that I can delete a delivery docket no longer needed</t>
   </si>
+  <si>
+    <t>so that I can better manage customer information</t>
+  </si>
+  <si>
+    <t>so that I can easily reference customer information</t>
+  </si>
+  <si>
+    <t>Verify that existing customer orders do not continue post-deletion</t>
+  </si>
+  <si>
+    <t>Verify Valid Employee ID (2-10 digits)</t>
+  </si>
+  <si>
+    <t>Verify that customer orders including the publication are adjusted accordingly</t>
+  </si>
+  <si>
+    <t>I want to read a warning</t>
+  </si>
+  <si>
+    <t>so that I can confirm that customers with late payments have had warnings generated for them</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,6 +656,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,19 +999,19 @@
   </sheetPr>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A48" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,23 +1022,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1025,41 +1046,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1067,29 +1088,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1097,27 +1118,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
@@ -1125,186 +1146,189 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="C28" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="C29" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="B51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="2" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C53" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="2" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1319,17 +1343,17 @@
   </sheetPr>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="78.5" customWidth="1"/>
-    <col min="3" max="3" width="85.5" customWidth="1"/>
+    <col min="2" max="2" width="78.44140625" customWidth="1"/>
+    <col min="3" max="3" width="85.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1348,41 +1372,41 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>2</v>
       </c>
@@ -1393,23 +1417,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>3</v>
       </c>
@@ -1417,26 +1441,26 @@
         <v>17</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>4</v>
       </c>
@@ -1444,151 +1468,151 @@
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:3" ht="15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:3" ht="15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:2" ht="15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
     </row>
-    <row r="36" spans="1:2" ht="15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" ht="15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" ht="15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
     </row>
-    <row r="40" spans="1:2" ht="15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
-    <row r="49" spans="1:2" ht="15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" ht="15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" ht="15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
     </row>
-    <row r="53" spans="1:2" ht="15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" ht="15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" ht="15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" ht="15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" ht="15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" ht="15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" ht="15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" ht="15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" ht="15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" ht="15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
     </row>
   </sheetData>
@@ -1603,19 +1627,19 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="138" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1626,78 +1650,78 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="C7" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1705,130 +1729,138 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="2" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="C53" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C54" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="C58" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -1849,15 +1881,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1868,197 +1900,197 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="C6" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="2" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="C53" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C54" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="C58" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2079,15 +2111,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2098,194 +2130,194 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="C6" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="2" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="C53" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C54" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="C58" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2303,18 +2335,18 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2325,188 +2357,187 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="B5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15"/>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
-      <c r="B18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="B23" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15">
-      <c r="B52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="2" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15">
-      <c r="C53" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C54" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15">
-      <c r="B57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15">
-      <c r="C58" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2528,15 +2559,15 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,192 +2578,192 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="C6" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="2" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="C53" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C54" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="C58" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2745,21 +2776,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447D839F-B03B-441A-A45A-B8367038B2C1}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2770,191 +2801,163 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="10" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>59</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>9</v>
-      </c>
+      <c r="B46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>68</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>10</v>
+      </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="C53" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="C54" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>10</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="B56" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="C58" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
         <v>11</v>
       </c>
     </row>
@@ -2970,52 +2973,52 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="191" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
     </row>
   </sheetData>

--- a/Documents/User Story(2).xlsx
+++ b/Documents/User Story(2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoinz\Documents\Git Repos\SoftwareEngineeringGroup\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captain\Documents\GitHub\SoftwareEngineeringGroup\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DAD0DA-FC11-4290-844A-C14DA2EB74C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795DEE1A-85F6-4002-A1A7-5BD0DD651441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="7" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -1003,15 +1003,15 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,12 +1022,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>145</v>
       </c>
@@ -1054,22 +1054,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>146</v>
       </c>
@@ -1096,10 +1096,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1118,16 +1118,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
@@ -1181,17 +1181,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>72</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>61</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>73</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>63</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>8</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>74</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>64</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
@@ -1299,12 +1299,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>66</v>
       </c>
@@ -1347,13 +1347,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="78.44140625" customWidth="1"/>
-    <col min="3" max="3" width="85.44140625" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" customWidth="1"/>
+    <col min="3" max="3" width="85.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
@@ -1391,22 +1391,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1425,15 +1425,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>3</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
@@ -1452,15 +1452,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>4</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
@@ -1479,15 +1479,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>5</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
@@ -1514,105 +1514,105 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
     </row>
   </sheetData>
@@ -1631,15 +1631,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>76</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1677,32 +1677,32 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>84</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1729,10 +1729,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>86</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>87</v>
       </c>
@@ -1759,15 +1759,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>90</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>91</v>
       </c>
@@ -1792,12 +1792,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
@@ -1821,17 +1821,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>66</v>
       </c>
@@ -1855,12 +1855,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -1881,15 +1881,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>98</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>99</v>
       </c>
@@ -1927,23 +1927,23 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>104</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>105</v>
       </c>
@@ -1970,10 +1970,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>107</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>87</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>108</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>109</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
@@ -2051,17 +2051,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>66</v>
       </c>
@@ -2085,12 +2085,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2111,15 +2111,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>111</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
@@ -2157,23 +2157,23 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>117</v>
       </c>
@@ -2192,15 +2192,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>120</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>87</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>122</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>123</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
@@ -2278,17 +2278,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>66</v>
       </c>
@@ -2312,12 +2312,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2338,15 +2338,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>124</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>125</v>
       </c>
@@ -2384,16 +2384,16 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>129</v>
       </c>
@@ -2412,15 +2412,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>131</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>87</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>132</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>133</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
@@ -2498,17 +2498,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>66</v>
       </c>
@@ -2532,12 +2532,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2559,15 +2559,15 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>134</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>135</v>
       </c>
@@ -2605,21 +2605,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>140</v>
       </c>
@@ -2638,15 +2638,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>142</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>87</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>143</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>144</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
@@ -2724,17 +2724,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>66</v>
       </c>
@@ -2758,12 +2758,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2776,21 +2776,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447D839F-B03B-441A-A45A-B8367038B2C1}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>93</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>94</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>150</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -2855,10 +2855,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>86</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>87</v>
       </c>
@@ -2885,79 +2885,79 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>9</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>10</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>11</v>
       </c>
     </row>
@@ -2977,48 +2977,48 @@
       <selection activeCell="B18" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
     </row>
   </sheetData>

--- a/Documents/User Story(2).xlsx
+++ b/Documents/User Story(2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captain\Documents\GitHub\SoftwareEngineeringGroup\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a00313443\Documents\GitHub\SoftwareEngineeringGroup\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795DEE1A-85F6-4002-A1A7-5BD0DD651441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B516A20B-D875-441D-93E9-B7FE49AF3D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="7" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Delivery Area" sheetId="8" r:id="rId6"/>
     <sheet name="Delivery Docket" sheetId="3" r:id="rId7"/>
     <sheet name="Warning" sheetId="9" r:id="rId8"/>
-    <sheet name="Newsagent" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,12 +55,6 @@
     <t>so that I can create an easier delivery system</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify valid  address: 2 - max characters </t>
-  </si>
-  <si>
-    <t>Verify valid full name: 2 - 50 characters</t>
-  </si>
-  <si>
     <t>Verify valid phone number: 10 digits</t>
   </si>
   <si>
@@ -101,12 +94,6 @@
     <t>Verify Valid Phone Number (9 digits)</t>
   </si>
   <si>
-    <t>Verify Valid Email Address (2-320 characters)</t>
-  </si>
-  <si>
-    <t>Verify valid Full Name (2-50 characters)</t>
-  </si>
-  <si>
     <t>As a Delivery Driver</t>
   </si>
   <si>
@@ -119,9 +106,6 @@
     <t>Verify valid details from User Story 1</t>
   </si>
   <si>
-    <t>Verify valid number of weeks order occurs(1 - 52 weeks)</t>
-  </si>
-  <si>
     <t>Verify invalid inputs are rejected and appropiate message is generated</t>
   </si>
   <si>
@@ -260,36 +244,18 @@
     <t>Verify valid end date is not before start date</t>
   </si>
   <si>
-    <t>I want to modify a customer subscription</t>
-  </si>
-  <si>
-    <t>I want to temporarily stop a customer subscription</t>
-  </si>
-  <si>
-    <t>I want to cancel a customer subscription</t>
-  </si>
-  <si>
     <t>Verify valid customer cannot be created without name and address</t>
   </si>
   <si>
     <t>I want to create a publication</t>
   </si>
   <si>
-    <t>Verify valid name(2 - max characters)</t>
-  </si>
-  <si>
     <t>Verify valid type of publication(Magazine, Newspaper, Book)</t>
   </si>
   <si>
-    <t>Verify valid author( 2 - max characters)</t>
-  </si>
-  <si>
     <t>Verify valid publication ID( 4 digits)</t>
   </si>
   <si>
-    <t>Verify valid customer ID: 4 digits</t>
-  </si>
-  <si>
     <t>Verify valid publciation cannot be created without name, type and date</t>
   </si>
   <si>
@@ -347,9 +313,6 @@
     <t>Verify valid order ID(8 digits)</t>
   </si>
   <si>
-    <t>Verify valid order can only be created for existing customer</t>
-  </si>
-  <si>
     <t>Verify valid date on order</t>
   </si>
   <si>
@@ -405,6 +368,126 @@
   </si>
   <si>
     <t>I want to update an invoice</t>
+  </si>
+  <si>
+    <t>I want to remove an invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so that I can delete an invoice no longer needed </t>
+  </si>
+  <si>
+    <t>I want to create a delivery area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so that I can divide up the addresses </t>
+  </si>
+  <si>
+    <t>I want to read a delivery area</t>
+  </si>
+  <si>
+    <t>so that I can review the delivery area</t>
+  </si>
+  <si>
+    <t>I want to update a delivery area</t>
+  </si>
+  <si>
+    <t>I want to remove a delivery area</t>
+  </si>
+  <si>
+    <t>so that I can delete a delivery area no longer needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to create a delivery docket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">so that the delivery drivers know where to deliver </t>
+  </si>
+  <si>
+    <t>Verify valid delivery docket ID(8 digits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify valid area is on delivery docket </t>
+  </si>
+  <si>
+    <t>Verify valid date on delivery docket(dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>Verify valid orders appear on  docket</t>
+  </si>
+  <si>
+    <t>I want to read a delivery docket</t>
+  </si>
+  <si>
+    <t>so that I can review the delivery docket</t>
+  </si>
+  <si>
+    <t>I want to update a delivery docket</t>
+  </si>
+  <si>
+    <t>I want to remove a delivery docket</t>
+  </si>
+  <si>
+    <t>so that I can delete a delivery docket no longer needed</t>
+  </si>
+  <si>
+    <t>so that I can better manage customer information</t>
+  </si>
+  <si>
+    <t>so that I can easily reference customer information</t>
+  </si>
+  <si>
+    <t>Verify that existing customer orders do not continue post-deletion</t>
+  </si>
+  <si>
+    <t>Verify that customer orders including the publication are adjusted accordingly</t>
+  </si>
+  <si>
+    <t>I want to read a warning</t>
+  </si>
+  <si>
+    <t>so that I can confirm that customers with late payments have had warnings generated for them</t>
+  </si>
+  <si>
+    <t>Verify valid customer ID: 8 digits</t>
+  </si>
+  <si>
+    <t>Verify valid order can only be created for a valid customer ID</t>
+  </si>
+  <si>
+    <t>I want to modify a customer order</t>
+  </si>
+  <si>
+    <t>I want to temporarily stop a customer order</t>
+  </si>
+  <si>
+    <t>I want to cancel a customer order</t>
+  </si>
+  <si>
+    <t>Verify valid delivery area ID(2 digits)</t>
+  </si>
+  <si>
+    <t>Verify valid description is between 10 and 200 characters inclusive</t>
+  </si>
+  <si>
+    <t>Verify valid  address: 2 - 100 characters inclusive</t>
+  </si>
+  <si>
+    <t>Verify valid full name: 2 - 50 characters inclusive</t>
+  </si>
+  <si>
+    <t>Verify valid number of weeks order occurs(1 - 52 weeks inclusive)</t>
+  </si>
+  <si>
+    <t>Verify valid Full Name (2-50 characters inclusive)</t>
+  </si>
+  <si>
+    <t>Verify Valid Employee ID (2-10 digits inclusive)</t>
+  </si>
+  <si>
+    <t>Verify Valid Email Address (2-50 characters inclusive)</t>
+  </si>
+  <si>
+    <t>Verify valid name(2 - 50 characters inclusive)</t>
   </si>
   <si>
     <r>
@@ -420,105 +503,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>€1.00 - €75.00)</t>
+      <t>€1.00 - €75.00 inclusive)</t>
     </r>
   </si>
   <si>
-    <t>I want to remove an invoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so that I can delete an invoice no longer needed </t>
-  </si>
-  <si>
-    <t>I want to create a delivery area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so that I can divide up the addresses </t>
-  </si>
-  <si>
-    <t>Verify valid delivery area ID(2 digits</t>
-  </si>
-  <si>
-    <t>Verify valid name of delivery area(2 - max characters)</t>
-  </si>
-  <si>
-    <t>Verify valid size of delivery area</t>
-  </si>
-  <si>
-    <t>I want to read a delivery area</t>
-  </si>
-  <si>
-    <t>so that I can review the delivery area</t>
-  </si>
-  <si>
-    <t>I want to update a delivery area</t>
-  </si>
-  <si>
-    <t>I want to remove a delivery area</t>
-  </si>
-  <si>
-    <t>so that I can delete a delivery area no longer needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to create a delivery docket </t>
-  </si>
-  <si>
-    <t xml:space="preserve">so that the delivery drivers know where to deliver </t>
-  </si>
-  <si>
-    <t>Verify valid delivery docket ID(8 digits)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify valid area is on delivery docket </t>
-  </si>
-  <si>
-    <t>Verify valid date on delivery docket(dd/mm/yyyy)</t>
-  </si>
-  <si>
-    <t>Verify valid orders appear on  docket</t>
-  </si>
-  <si>
-    <t>I want to read a delivery docket</t>
-  </si>
-  <si>
-    <t>so that I can review the delivery docket</t>
-  </si>
-  <si>
-    <t>I want to update a delivery docket</t>
-  </si>
-  <si>
-    <t>I want to remove a delivery docket</t>
-  </si>
-  <si>
-    <t>so that I can delete a delivery docket no longer needed</t>
-  </si>
-  <si>
-    <t>so that I can better manage customer information</t>
-  </si>
-  <si>
-    <t>so that I can easily reference customer information</t>
-  </si>
-  <si>
-    <t>Verify that existing customer orders do not continue post-deletion</t>
-  </si>
-  <si>
-    <t>Verify Valid Employee ID (2-10 digits)</t>
-  </si>
-  <si>
-    <t>Verify that customer orders including the publication are adjusted accordingly</t>
-  </si>
-  <si>
-    <t>I want to read a warning</t>
-  </si>
-  <si>
-    <t>so that I can confirm that customers with late payments have had warnings generated for them</t>
+    <t>Verify valid author( 2 - 50 characters inclusive)</t>
+  </si>
+  <si>
+    <t>Verify valid name of delivery area(2 - 50 characters inclusive)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +592,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -632,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -660,6 +666,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,19 +1006,19 @@
   </sheetPr>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,313 +1029,313 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+    <row r="7" spans="1:3">
+      <c r="C7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="C28" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="C29" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="B34" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="B42" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1343,17 +1350,17 @@
   </sheetPr>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="78.42578125" customWidth="1"/>
-    <col min="3" max="3" width="85.42578125" customWidth="1"/>
+    <col min="2" max="2" width="78.375" customWidth="1"/>
+    <col min="3" max="3" width="85.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1364,255 +1371,255 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="11">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
       <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" s="11">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
       <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="11">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
       <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="7">
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15">
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15">
       <c r="B24" s="2"/>
       <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
       <c r="B25" s="2"/>
       <c r="C25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
       <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15">
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15">
       <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" s="7"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15">
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15">
       <c r="B34" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15">
       <c r="A36" s="8"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15">
       <c r="B38" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15">
       <c r="A40" s="8"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15">
       <c r="A49" s="8"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15">
       <c r="B51" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15">
       <c r="A53" s="8"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="15">
       <c r="B62" s="2"/>
     </row>
   </sheetData>
@@ -1627,19 +1634,19 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,217 +1657,217 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="C7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="C8" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="C9" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="C25" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="C54" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="C58" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -1878,18 +1885,18 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1900,197 +1907,197 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="C54" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="C58" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2108,18 +2115,18 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView zoomScale="105" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2130,194 +2137,194 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="C7" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="C54" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="C58" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2335,18 +2342,18 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2357,187 +2364,184 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="C54" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="C58" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2555,19 +2559,19 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2578,192 +2582,192 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="C54" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="C58" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2776,21 +2780,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447D839F-B03B-441A-A45A-B8367038B2C1}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2801,225 +2805,165 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="B10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>10</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5938CEC-1BD4-42F5-AC57-0BB3D1109D0C}">
-  <sheetPr>
-    <tabColor theme="6" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/User Story(2).xlsx
+++ b/Documents/User Story(2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a00313443\Documents\GitHub\SoftwareEngineeringGroup\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciara\Documents\GitHub\SoftwareEngineeringGroup\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B516A20B-D875-441D-93E9-B7FE49AF3D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B13CA6E-E2B1-4C97-8F4A-6FF1F8B97B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="152">
   <si>
     <t>Number</t>
   </si>
@@ -517,7 +517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,15 +1010,15 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.26953125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,12 +1029,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>129</v>
       </c>
@@ -1061,22 +1061,22 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>130</v>
       </c>
@@ -1103,10 +1103,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1125,16 +1125,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
@@ -1188,17 +1188,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
         <v>137</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>56</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
         <v>138</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
         <v>58</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>8</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
         <v>139</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
         <v>59</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -1306,12 +1306,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C53" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
@@ -1354,13 +1354,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="78.375" customWidth="1"/>
-    <col min="3" max="3" width="85.375" customWidth="1"/>
+    <col min="2" max="2" width="78.36328125" customWidth="1"/>
+    <col min="3" max="3" width="85.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1398,22 +1398,22 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1432,15 +1432,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>3</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1459,15 +1459,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>4</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1486,15 +1486,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>5</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1521,105 +1521,105 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:3" ht="15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:3" ht="15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:2" ht="15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
     </row>
-    <row r="36" spans="1:2" ht="15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" ht="15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" ht="15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
     </row>
-    <row r="40" spans="1:2" ht="15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
     </row>
-    <row r="49" spans="1:2" ht="15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" ht="15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" ht="15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B51" s="2"/>
     </row>
-    <row r="53" spans="1:2" ht="15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" ht="15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" ht="15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" ht="15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" ht="15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" ht="15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" ht="15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" ht="15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" ht="15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" ht="15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
     </row>
   </sheetData>
@@ -1634,19 +1634,19 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.26953125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1684,32 +1684,32 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>73</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1736,10 +1736,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1750,124 +1750,115 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="C25" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="C50" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C53" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -1888,15 +1879,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.26953125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +1898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1918,7 +1909,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>87</v>
       </c>
@@ -1926,7 +1917,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>88</v>
       </c>
@@ -1934,23 +1925,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1961,7 +1952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>92</v>
       </c>
@@ -1969,7 +1960,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>93</v>
       </c>
@@ -1977,10 +1968,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1991,7 +1982,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>95</v>
       </c>
@@ -1999,7 +1990,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
@@ -2007,7 +1998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2018,7 +2009,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>96</v>
       </c>
@@ -2026,7 +2017,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
@@ -2034,7 +2025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2042,7 +2033,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2050,7 +2041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2058,17 +2049,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2076,7 +2067,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
@@ -2084,7 +2075,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
@@ -2092,12 +2083,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2118,15 +2109,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.26953125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2137,7 +2128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2148,7 +2139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>99</v>
       </c>
@@ -2156,7 +2147,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>100</v>
       </c>
@@ -2164,23 +2155,23 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2191,7 +2182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>105</v>
       </c>
@@ -2199,15 +2190,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -2218,7 +2209,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>108</v>
       </c>
@@ -2226,7 +2217,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
@@ -2234,7 +2225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2245,7 +2236,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>109</v>
       </c>
@@ -2253,7 +2244,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>110</v>
       </c>
@@ -2261,7 +2252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2269,7 +2260,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2277,7 +2268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2285,17 +2276,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2303,7 +2294,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
@@ -2311,7 +2302,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
@@ -2319,12 +2310,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2345,15 +2336,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.26953125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2364,7 +2355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2375,7 +2366,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>111</v>
       </c>
@@ -2383,21 +2374,21 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2408,7 +2399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>113</v>
       </c>
@@ -2416,15 +2407,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -2435,7 +2426,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>115</v>
       </c>
@@ -2443,7 +2434,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
@@ -2451,7 +2442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2462,7 +2453,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>116</v>
       </c>
@@ -2470,7 +2461,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>117</v>
       </c>
@@ -2478,7 +2469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2486,7 +2477,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2494,7 +2485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2502,17 +2493,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2520,7 +2511,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
@@ -2528,7 +2519,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
@@ -2536,12 +2527,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2563,15 +2554,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.26953125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2582,7 +2573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2593,7 +2584,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>118</v>
       </c>
@@ -2601,7 +2592,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>119</v>
       </c>
@@ -2609,21 +2600,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2634,7 +2625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>124</v>
       </c>
@@ -2642,15 +2633,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -2661,7 +2652,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>126</v>
       </c>
@@ -2669,7 +2660,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
@@ -2677,7 +2668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2688,7 +2679,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>127</v>
       </c>
@@ -2696,7 +2687,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>128</v>
       </c>
@@ -2704,7 +2695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2712,7 +2703,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2720,7 +2711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2728,17 +2719,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2746,7 +2737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
@@ -2754,7 +2745,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
@@ -2762,12 +2753,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2782,19 +2773,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447D839F-B03B-441A-A45A-B8367038B2C1}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.26953125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2805,7 +2796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2816,7 +2807,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
@@ -2824,7 +2815,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>83</v>
       </c>
@@ -2832,12 +2823,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2848,7 +2839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>133</v>
       </c>
@@ -2856,7 +2847,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>134</v>
       </c>
@@ -2864,10 +2855,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -2878,7 +2869,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
@@ -2886,7 +2877,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>76</v>
       </c>
@@ -2894,20 +2885,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C16" s="4"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2915,7 +2906,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>9</v>
       </c>
@@ -2926,22 +2917,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C21" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
@@ -2949,7 +2940,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>10</v>
       </c>
@@ -2960,7 +2951,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C26" s="2" t="s">
         <v>65</v>
       </c>

--- a/Documents/User Story(2).xlsx
+++ b/Documents/User Story(2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciara\Documents\GitHub\SoftwareEngineeringGroup\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a00313443\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B13CA6E-E2B1-4C97-8F4A-6FF1F8B97B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5CE1A6-ACE2-4D51-AC68-FA1CD1BFF0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="153">
   <si>
     <t>Number</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Verify valid date on order</t>
   </si>
   <si>
-    <t>Verify list of valid publication IDs</t>
-  </si>
-  <si>
     <t>I want to read an order</t>
   </si>
   <si>
@@ -470,9 +467,6 @@
   </si>
   <si>
     <t>Verify valid  address: 2 - 100 characters inclusive</t>
-  </si>
-  <si>
-    <t>Verify valid full name: 2 - 50 characters inclusive</t>
   </si>
   <si>
     <t>Verify valid number of weeks order occurs(1 - 52 weeks inclusive)</t>
@@ -512,12 +506,21 @@
   <si>
     <t>Verify valid name of delivery area(2 - 50 characters inclusive)</t>
   </si>
+  <si>
+    <t>Verify valid first name: 2 - 20 characters inclusive</t>
+  </si>
+  <si>
+    <t>Verify valid last name: 2 - 20 characters inclusive</t>
+  </si>
+  <si>
+    <t>Verify valid publication ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,19 +1009,19 @@
   </sheetPr>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.26953125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,12 +1032,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="C2" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1042,10 +1045,10 @@
         <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1053,30 +1056,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="1:3">
+      <c r="C8" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C8" s="4" t="s">
+    <row r="9" spans="1:3">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1087,7 +1095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1095,18 +1103,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1117,7 +1125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1125,16 +1133,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1145,7 +1153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1153,15 +1161,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
@@ -1180,25 +1188,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="C29" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -1209,15 +1217,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="B33" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="B34" s="2" t="s">
         <v>56</v>
       </c>
@@ -1225,7 +1233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -1236,15 +1244,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="B37" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="B38" s="2" t="s">
         <v>58</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>8</v>
       </c>
@@ -1263,15 +1271,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="B42" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="B43" s="2" t="s">
         <v>59</v>
       </c>
@@ -1279,7 +1287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -1290,7 +1298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
@@ -1298,7 +1306,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -1306,12 +1314,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -1322,7 +1330,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
@@ -1330,7 +1338,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
@@ -1354,13 +1362,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="78.36328125" customWidth="1"/>
-    <col min="3" max="3" width="85.36328125" customWidth="1"/>
+    <col min="2" max="2" width="78.375" customWidth="1"/>
+    <col min="3" max="3" width="85.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1379,10 +1387,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1390,30 +1398,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
       <c r="B7" s="2"/>
       <c r="C7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="11">
         <v>2</v>
       </c>
@@ -1424,7 +1432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15">
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1432,15 +1440,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15">
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" s="11">
         <v>3</v>
       </c>
@@ -1451,7 +1459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15">
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1459,15 +1467,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="11">
         <v>4</v>
       </c>
@@ -1478,7 +1486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="15">
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1486,15 +1494,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15">
       <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="15">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="7">
         <v>5</v>
       </c>
@@ -1505,7 +1513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15">
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1513,7 +1521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1521,105 +1529,105 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="15">
       <c r="B24" s="2"/>
       <c r="C24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15">
       <c r="B25" s="2"/>
       <c r="C25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15">
       <c r="B26" s="2"/>
       <c r="C26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="15">
       <c r="B27" s="2"/>
       <c r="C27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="15">
       <c r="B28" s="2"/>
       <c r="C28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" s="7"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15">
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="15">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15">
       <c r="B34" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15">
       <c r="A36" s="8"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="15">
       <c r="B38" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="15">
       <c r="A40" s="8"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="15">
       <c r="A49" s="8"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="15">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="15">
       <c r="B51" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="15">
       <c r="A53" s="8"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="15">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="15">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="15">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="15">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="15">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="15">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="15">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="15">
       <c r="B62" s="2"/>
     </row>
   </sheetData>
@@ -1634,19 +1642,19 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.26953125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1668,48 +1676,48 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="C7" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="C8" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="C9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1720,7 +1728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
         <v>73</v>
       </c>
@@ -1728,7 +1736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1736,10 +1744,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1750,7 +1758,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
@@ -1758,7 +1766,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
@@ -1766,13 +1774,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -1783,7 +1791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
@@ -1791,15 +1799,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="B24" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -1810,7 +1818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
@@ -1818,7 +1826,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -1826,12 +1834,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -1842,7 +1850,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
@@ -1850,7 +1858,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
@@ -1858,7 +1866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -1875,19 +1883,19 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.26953125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1909,15 +1917,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
         <v>88</v>
       </c>
@@ -1925,23 +1933,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1952,26 +1960,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1982,15 +1990,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
@@ -1998,7 +2006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2006,26 +2014,26 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2033,7 +2041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2041,7 +2049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2049,17 +2057,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2067,7 +2075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
@@ -2075,7 +2083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
@@ -2083,12 +2091,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2109,15 +2117,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.26953125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2128,7 +2136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2136,42 +2144,42 @@
         <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="1:3">
+      <c r="C6" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C6" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="C7" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2182,23 +2190,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -2209,15 +2217,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
@@ -2225,7 +2233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2233,26 +2241,26 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2260,7 +2268,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2268,7 +2276,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2276,17 +2284,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2294,7 +2302,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
@@ -2302,7 +2310,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
@@ -2310,12 +2318,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2336,15 +2344,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.26953125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2363,32 +2371,32 @@
         <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:3">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2399,23 +2407,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -2426,15 +2434,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
@@ -2442,7 +2450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2450,26 +2458,26 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2477,7 +2485,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2485,7 +2493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2493,17 +2501,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2511,7 +2519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
@@ -2519,7 +2527,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
@@ -2527,12 +2535,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2554,15 +2562,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.26953125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2573,7 +2581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2581,40 +2589,40 @@
         <v>53</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="1:3">
+      <c r="C6" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C6" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="C10" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2625,23 +2633,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -2652,15 +2660,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
@@ -2668,7 +2676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2676,26 +2684,26 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>9</v>
       </c>
@@ -2703,7 +2711,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2711,7 +2719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
@@ -2719,17 +2727,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -2737,7 +2745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
@@ -2745,7 +2753,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
@@ -2753,12 +2761,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2777,15 +2785,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.26953125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="62.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2796,7 +2804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2807,7 +2815,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
         <v>83</v>
       </c>
@@ -2823,12 +2831,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2839,26 +2847,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="B9" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="30">
       <c r="B10" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -2869,7 +2877,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
@@ -2877,7 +2885,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="B14" s="2" t="s">
         <v>76</v>
       </c>
@@ -2885,20 +2893,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="C16" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2906,7 +2914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>9</v>
       </c>
@@ -2917,22 +2925,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="C21" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
@@ -2940,7 +2948,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>10</v>
       </c>
@@ -2951,7 +2959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="C26" s="2" t="s">
         <v>65</v>
       </c>

--- a/Documents/User Story(2).xlsx
+++ b/Documents/User Story(2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a00313443\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00311030\Documents\Github\SoftwareEngineeringGroup\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5CE1A6-ACE2-4D51-AC68-FA1CD1BFF0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D1E8C2-3DA6-41C4-B7AE-308C737ADC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="152">
   <si>
     <t>Number</t>
   </si>
@@ -347,9 +347,6 @@
   </si>
   <si>
     <t>Verify valid date on invoice</t>
-  </si>
-  <si>
-    <t>Verify valid business address on invoice?</t>
   </si>
   <si>
     <t>Verify valid amount owed(sum of orders for previous month)</t>
@@ -1009,7 +1006,7 @@
   </sheetPr>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="131" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1034,7 +1031,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1045,7 +1042,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1058,15 +1055,15 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1105,7 +1102,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
@@ -1166,7 +1163,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1193,7 +1190,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1219,7 +1216,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="B33" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>45</v>
@@ -1246,7 +1243,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="B37" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>66</v>
@@ -1273,7 +1270,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>
@@ -1387,7 +1384,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -1403,13 +1400,13 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -1681,7 +1678,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1689,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1699,7 +1696,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="C7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1804,7 +1801,7 @@
         <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1883,7 +1880,7 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -1922,7 +1919,7 @@
         <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1935,7 +1932,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2113,8 +2110,8 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A7" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2159,18 +2156,15 @@
       <c r="B5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="C7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2192,7 +2186,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
@@ -2200,7 +2194,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2219,7 +2213,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>78</v>
@@ -2246,7 +2240,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>81</v>
@@ -2254,7 +2248,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>6</v>
@@ -2371,20 +2365,20 @@
         <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2409,7 +2403,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
@@ -2417,7 +2411,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2436,7 +2430,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>78</v>
@@ -2463,7 +2457,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>81</v>
@@ -2471,7 +2465,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>6</v>
@@ -2589,28 +2583,28 @@
         <v>53</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2635,7 +2629,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
@@ -2643,7 +2637,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2662,7 +2656,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>78</v>
@@ -2689,7 +2683,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>81</v>
@@ -2697,7 +2691,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>6</v>
@@ -2781,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447D839F-B03B-441A-A45A-B8367038B2C1}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2833,7 +2827,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2849,7 +2843,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>74</v>
@@ -2857,7 +2851,7 @@
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="B10" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
